--- a/biology/Botanique/Microlaena/Microlaena.xlsx
+++ b/biology/Botanique/Microlaena/Microlaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microlaena est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire des régions tropicales du Sud-Est asiatique et d'Australasie, qui comprend une dizaine d'espèces. Certains auteurs incluent les genres Microlaena et Tetrarrhena dans Ehrharta[2].
-Ce sont des plantes herbacées, annuelles ou vivaces, de 5 à 150 cm de haut, aux inflorescence en panicules ou racèmes[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microlaena est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire des régions tropicales du Sud-Est asiatique et d'Australasie, qui comprend une dizaine d'espèces. Certains auteurs incluent les genres Microlaena et Tetrarrhena dans Ehrharta.
+Ce sont des plantes herbacées, annuelles ou vivaces, de 5 à 150 cm de haut, aux inflorescence en panicules ou racèmes.
 Une espèce, Microlaena stipoides est cultivée en Australie comme plante fourragère ou pour la création de pelouses.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (27 janvier 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (27 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 Microlaena acuminata (R. Br.) Mez
 Microlaena avenacea (Raoul) Hook. f.
 Microlaena carsei Cheeseman
